--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\trans_table_tool_client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3912D9F9-D853-4DA5-A2D8-A81EC097C05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5847BE4B-DB48-474C-A191-F15AF4137071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,14 +554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S2-S3赛季暗影岛服务器排位分达到1700分。&lt;br&gt;S5赛季艾欧尼亚服务器段位达到“璀璨钻石Ⅰ”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年第5赛季亚洲服前500名。&lt;br&gt;2018年第6赛季亚洲服、北美服前100名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国服第二赛季3508分。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,10 +566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金铲铲之战：超凡大师&lt;br&gt;云顶之弈：璀璨钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,6 +603,21 @@
   </si>
   <si>
     <t>Totally Accurate Battlegrounds</t>
+  </si>
+  <si>
+    <t>金铲铲之战：超凡大师
+云顶之弈：璀璨钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年第5赛季亚洲服前500名。
+2018年第6赛季亚洲服、北美服前100名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2-S3赛季暗影岛服务器排位分达到1700分。
+S5赛季艾欧尼亚服务器段位达到“璀璨钻石Ⅰ”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +730,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,8 +1041,8 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1252,11 +1258,11 @@
       <c r="G11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I11" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1278,8 +1284,8 @@
       <c r="G12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>116</v>
+      <c r="I12" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1359,7 +1365,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2">
         <v>124</v>
@@ -1379,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2">
         <v>12</v>
@@ -2379,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2402,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2450,7 +2456,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D64" s="2">
         <v>7</v>
@@ -2470,7 +2476,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D65" s="2">
         <v>12</v>
@@ -2490,7 +2496,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D66" s="2">
         <v>6</v>
@@ -2510,7 +2516,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D67" s="2">
         <v>11</v>
@@ -2530,7 +2536,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D68" s="2">
         <v>7</v>
@@ -2748,7 +2754,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>47</v>
@@ -2766,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
@@ -2774,7 +2780,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>47</v>
@@ -2792,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
@@ -2838,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>74</v>
       </c>
@@ -2860,8 +2866,8 @@
       <c r="G82" t="b">
         <v>0</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>121</v>
+      <c r="I82" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">

--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD3C79-9B80-4100-B523-B67D41D31C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6037E608-221C-4F1B-9AF0-0641888DA0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -592,6 +592,18 @@
   </si>
   <si>
     <t>《少女前线》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《以撒的结合》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《杀戮尖塔》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS1.5/1.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,11 +1044,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="8" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1231,7 +1243,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1404,11 +1416,11 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1417,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1427,11 +1439,11 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1450,24 +1462,22 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1475,13 +1485,11 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="8">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>445</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -1490,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
@@ -1502,13 +1510,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1529,13 +1537,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1544,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>29</v>
@@ -1556,13 +1564,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3">
-        <v>50</v>
+      <c r="D22" s="8">
+        <v>200</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1571,9 +1579,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1581,11 +1591,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D23" s="3">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1596,9 +1608,7 @@
       <c r="G23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1606,11 +1616,11 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1631,11 +1641,11 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1647,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1656,11 +1666,11 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -1681,11 +1691,11 @@
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1697,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1706,11 +1716,11 @@
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1731,11 +1741,11 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1756,11 +1766,11 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -1769,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -1781,11 +1791,11 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -1794,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>55</v>
@@ -1806,11 +1816,11 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1821,7 +1831,9 @@
       <c r="G32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1829,11 +1841,11 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -1852,13 +1864,11 @@
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -1867,8 +1877,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="b">
-        <f>$F$36</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1878,11 +1887,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -1891,7 +1902,8 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="b">
-        <v>0</v>
+        <f>$F$37</f>
+        <v>1</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1901,19 +1913,17 @@
         <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
       <c r="F36" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2" t="b">
         <v>0</v>
@@ -1926,26 +1936,24 @@
         <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
       </c>
       <c r="F37" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1953,7 +1961,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>47</v>
@@ -1980,13 +1988,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
@@ -1998,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2007,13 +2015,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2034,13 +2042,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -2051,7 +2059,9 @@
       <c r="G41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2059,11 +2069,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D42" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -2082,11 +2094,11 @@
         <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2">
         <v>2</v>
@@ -2095,11 +2107,9 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2107,20 +2117,20 @@
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
       </c>
       <c r="F44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>68</v>
@@ -2132,7 +2142,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
@@ -2142,12 +2152,14 @@
         <v>2</v>
       </c>
       <c r="F45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2155,11 +2167,11 @@
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
@@ -2168,11 +2180,9 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2180,22 +2190,24 @@
         <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2203,11 +2215,11 @@
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2">
         <v>3</v>
@@ -2226,13 +2238,11 @@
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2">
         <v>3</v>
@@ -2241,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2251,11 +2261,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D50" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E50" s="2">
         <v>3</v>
@@ -2264,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2274,11 +2286,11 @@
         <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
@@ -2297,26 +2309,22 @@
         <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2">
         <v>3</v>
       </c>
       <c r="F52" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2324,22 +2332,22 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D53" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E53" s="2">
         <v>3</v>
       </c>
       <c r="F53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>39</v>
@@ -2351,13 +2359,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E54" s="2">
         <v>3</v>
@@ -2378,11 +2386,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D55" s="3">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
@@ -2394,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -2403,17 +2413,17 @@
         <v>48</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
       </c>
       <c r="F56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2" t="b">
         <v>0</v>
@@ -2428,22 +2438,24 @@
         <v>49</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
       </c>
       <c r="F57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2451,11 +2463,11 @@
         <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
@@ -2474,20 +2486,20 @@
         <v>51</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E59" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2497,26 +2509,22 @@
         <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="3">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2">
         <v>4</v>
       </c>
       <c r="F60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2524,11 +2532,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D61" s="3">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E61" s="2">
         <v>4</v>
@@ -2537,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>118</v>
@@ -2549,11 +2559,11 @@
         <v>54</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
@@ -2562,9 +2572,11 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2572,11 +2584,11 @@
         <v>55</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2">
         <v>4</v>
@@ -2585,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2595,11 +2607,11 @@
         <v>56</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E64" s="2">
         <v>4</v>
@@ -2608,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2618,11 +2630,11 @@
         <v>57</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2">
         <v>4</v>
@@ -2641,11 +2653,11 @@
         <v>58</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E66" s="2">
         <v>4</v>
@@ -2663,12 +2675,12 @@
       <c r="A67" s="2">
         <v>59</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>126</v>
+      <c r="B67" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E67" s="2">
         <v>4</v>
@@ -2687,11 +2699,11 @@
         <v>60</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
@@ -2709,15 +2721,15 @@
       <c r="A69" s="2">
         <v>61</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>94</v>
+      <c r="B69" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="2" t="b">
         <v>0</v>
@@ -2733,13 +2745,11 @@
         <v>62</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
@@ -2758,7 +2768,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>46</v>
@@ -2783,13 +2793,13 @@
         <v>64</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D72" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
@@ -2798,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2808,13 +2818,13 @@
         <v>65</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="3">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E73" s="2">
         <v>5</v>
@@ -2823,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2833,13 +2843,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D74" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E74" s="2">
         <v>5</v>
@@ -2858,11 +2868,13 @@
         <v>67</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D75" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2">
         <v>5</v>
@@ -2881,16 +2893,14 @@
         <v>68</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E76" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2" t="b">
         <v>0</v>
@@ -2906,20 +2916,20 @@
         <v>69</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E77" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2929,43 +2939,33 @@
         <v>70</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>120</v>
-      </c>
-      <c r="E78" s="2">
-        <v>7</v>
-      </c>
-      <c r="F78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>71</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D79" s="3">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="E79" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" s="2" t="b">
         <v>0</v>
@@ -2974,23 +2974,21 @@
         <v>0</v>
       </c>
       <c r="H79" s="2"/>
-      <c r="I79" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>72</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E80" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" s="2" t="b">
         <v>0</v>
@@ -3006,13 +3004,13 @@
         <v>73</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2">
         <v>7</v>
@@ -3024,18 +3022,22 @@
         <v>0</v>
       </c>
       <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>74</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D82" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2">
         <v>7</v>
@@ -3048,7 +3050,7 @@
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3056,11 +3058,11 @@
         <v>75</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E83" s="2">
         <v>7</v>
@@ -3069,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -3079,11 +3081,13 @@
         <v>76</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D84" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E84" s="2">
         <v>7</v>
@@ -3102,11 +3106,11 @@
         <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2">
         <v>7</v>
@@ -3118,18 +3122,20 @@
         <v>0</v>
       </c>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>78</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E86" s="2">
         <v>7</v>
@@ -3148,11 +3154,11 @@
         <v>79</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2">
         <v>7</v>
@@ -3166,21 +3172,19 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>80</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E88" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F88" s="2" t="b">
         <v>0</v>
@@ -3189,25 +3193,21 @@
         <v>0</v>
       </c>
       <c r="H88" s="2"/>
-      <c r="I88" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>81</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E89" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89" s="2" t="b">
         <v>0</v>
@@ -3223,16 +3223,14 @@
         <v>82</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C90" s="3"/>
       <c r="D90" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" s="2" t="b">
         <v>0</v>
@@ -3243,21 +3241,21 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>83</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D91" s="3">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E91" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F91" s="2" t="b">
         <v>0</v>
@@ -3266,20 +3264,22 @@
         <v>0</v>
       </c>
       <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
+      <c r="I91" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>84</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E92" s="2">
         <v>8</v>
@@ -3294,17 +3294,92 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="A93" s="2">
+        <v>85</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="3">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2">
+        <v>8</v>
+      </c>
+      <c r="F93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>86</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" s="3">
+        <v>20</v>
+      </c>
+      <c r="E94" s="2">
+        <v>8</v>
+      </c>
+      <c r="F94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>87</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="3">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2">
+        <v>8</v>
+      </c>
+      <c r="F95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6037E608-221C-4F1B-9AF0-0641888DA0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F572FB7-C56C-4F78-9A3F-0C86A477F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1047,8 +1047,8 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="8" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2945,9 +2945,15 @@
       <c r="D78" s="3">
         <v>17</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="E78" s="2">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>

--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F572FB7-C56C-4F78-9A3F-0C86A477F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B761C734-7421-454A-BEB2-754A12EADE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -604,6 +604,14 @@
   </si>
   <si>
     <t>CS1.5/1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSOL/CSOL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,11 +1052,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,7 +1262,9 @@
       <c r="G9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1431,7 +1441,9 @@
       <c r="G16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1439,11 +1451,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="3">
-        <v>124</v>
+        <v>500</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1452,9 +1466,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1462,11 +1478,11 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1485,24 +1501,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1510,13 +1524,11 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="8">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>445</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1525,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>29</v>
@@ -1537,13 +1549,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1564,13 +1576,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1579,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>29</v>
@@ -1591,13 +1603,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3">
-        <v>50</v>
+      <c r="D23" s="8">
+        <v>200</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1606,9 +1618,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1616,11 +1630,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D24" s="3">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1631,9 +1647,7 @@
       <c r="G24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1641,11 +1655,11 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1666,11 +1680,11 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -1682,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1691,11 +1705,11 @@
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1716,11 +1730,11 @@
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1732,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1741,11 +1755,11 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1766,11 +1780,11 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -1791,11 +1805,11 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -1804,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -1816,11 +1830,11 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1829,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>55</v>
@@ -1841,11 +1855,11 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -1856,7 +1870,9 @@
       <c r="G33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1864,11 +1880,11 @@
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -1887,13 +1903,11 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -1902,8 +1916,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="b">
-        <f>$F$37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1913,11 +1926,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -1926,7 +1941,8 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="b">
-        <v>0</v>
+        <f>$F$38</f>
+        <v>1</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1936,19 +1952,17 @@
         <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
       </c>
       <c r="F37" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2" t="b">
         <v>0</v>
@@ -1961,26 +1975,24 @@
         <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
       </c>
       <c r="F38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1988,7 +2000,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
@@ -2015,13 +2027,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2033,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -2042,13 +2054,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -2069,13 +2081,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -2086,7 +2098,9 @@
       <c r="G42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2094,11 +2108,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D43" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2">
         <v>2</v>
@@ -2117,11 +2133,11 @@
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
@@ -2130,11 +2146,9 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2142,20 +2156,20 @@
         <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
       </c>
       <c r="F45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>68</v>
@@ -2167,7 +2181,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
@@ -2177,12 +2191,14 @@
         <v>2</v>
       </c>
       <c r="F46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2190,11 +2206,11 @@
         <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
@@ -2203,11 +2219,9 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2215,22 +2229,24 @@
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2238,11 +2254,11 @@
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2">
         <v>3</v>
@@ -2261,13 +2277,11 @@
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
         <v>3</v>
@@ -2276,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2286,11 +2300,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D51" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
@@ -2299,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2309,11 +2325,11 @@
         <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E52" s="2">
         <v>3</v>
@@ -2332,26 +2348,22 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="3">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2">
         <v>3</v>
       </c>
       <c r="F53" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2359,22 +2371,22 @@
         <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2">
         <v>3</v>
       </c>
       <c r="F54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>39</v>
@@ -2386,13 +2398,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D55" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
@@ -2413,11 +2425,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D56" s="3">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
@@ -2429,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -2438,17 +2452,17 @@
         <v>49</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
       </c>
       <c r="F57" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="2" t="b">
         <v>0</v>
@@ -2463,22 +2477,24 @@
         <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
       </c>
       <c r="F58" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2486,11 +2502,11 @@
         <v>51</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
@@ -2509,20 +2525,20 @@
         <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E60" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2532,26 +2548,22 @@
         <v>53</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="3">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2">
         <v>4</v>
       </c>
       <c r="F61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2559,11 +2571,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D62" s="3">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
@@ -2572,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>118</v>
@@ -2584,11 +2598,11 @@
         <v>55</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E63" s="2">
         <v>4</v>
@@ -2597,9 +2611,11 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2607,11 +2623,11 @@
         <v>56</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2">
         <v>4</v>
@@ -2620,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2630,11 +2646,11 @@
         <v>57</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2">
         <v>4</v>
@@ -2643,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -2653,11 +2669,11 @@
         <v>58</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E66" s="2">
         <v>4</v>
@@ -2676,11 +2692,11 @@
         <v>59</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E67" s="2">
         <v>4</v>
@@ -2698,12 +2714,12 @@
       <c r="A68" s="2">
         <v>60</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>126</v>
+      <c r="B68" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
@@ -2722,11 +2738,11 @@
         <v>61</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E69" s="2">
         <v>4</v>
@@ -2744,15 +2760,15 @@
       <c r="A70" s="2">
         <v>62</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>94</v>
+      <c r="B70" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E70" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" s="2" t="b">
         <v>0</v>
@@ -2768,13 +2784,11 @@
         <v>63</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E71" s="2">
         <v>5</v>
@@ -2793,7 +2807,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>46</v>
@@ -2818,13 +2832,13 @@
         <v>65</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D73" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2">
         <v>5</v>
@@ -2833,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2843,13 +2857,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D74" s="3">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E74" s="2">
         <v>5</v>
@@ -2858,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2868,13 +2882,13 @@
         <v>67</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E75" s="2">
         <v>5</v>
@@ -2893,11 +2907,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D76" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2">
         <v>5</v>
@@ -2916,11 +2932,11 @@
         <v>69</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E77" s="2">
         <v>5</v>
@@ -2939,11 +2955,11 @@
         <v>70</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E78" s="2">
         <v>5</v>
@@ -2962,22 +2978,20 @@
         <v>71</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E79" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -2987,11 +3001,13 @@
         <v>72</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D80" s="3">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="E80" s="2">
         <v>6</v>
@@ -3000,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3010,40 +3026,36 @@
         <v>73</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C81" s="3"/>
       <c r="D81" s="3">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="E81" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="2"/>
-      <c r="I81" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>74</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D82" s="3">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2">
         <v>7</v>
@@ -3056,7 +3068,7 @@
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3064,11 +3076,13 @@
         <v>75</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D83" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E83" s="2">
         <v>7</v>
@@ -3077,23 +3091,23 @@
         <v>0</v>
       </c>
       <c r="G83" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="I83" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>76</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="3">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E84" s="2">
         <v>7</v>
@@ -3102,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -3112,11 +3126,13 @@
         <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D85" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E85" s="2">
         <v>7</v>
@@ -3128,20 +3144,20 @@
         <v>0</v>
       </c>
       <c r="H85" s="2"/>
-      <c r="I85" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>78</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D86" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2">
         <v>7</v>
@@ -3153,18 +3169,20 @@
         <v>0</v>
       </c>
       <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>79</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E87" s="2">
         <v>7</v>
@@ -3183,11 +3201,11 @@
         <v>80</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2">
         <v>7</v>
@@ -3206,11 +3224,11 @@
         <v>81</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E89" s="2">
         <v>7</v>
@@ -3229,11 +3247,13 @@
         <v>82</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D90" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2">
         <v>7</v>
@@ -3247,21 +3267,19 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>83</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F91" s="2" t="b">
         <v>0</v>
@@ -3270,25 +3288,23 @@
         <v>0</v>
       </c>
       <c r="H91" s="2"/>
-      <c r="I91" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>84</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D92" s="3">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="E92" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F92" s="2" t="b">
         <v>0</v>
@@ -3297,20 +3313,22 @@
         <v>0</v>
       </c>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="I92" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>85</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D93" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E93" s="2">
         <v>8</v>
@@ -3329,13 +3347,13 @@
         <v>86</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D94" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2">
         <v>8</v>
@@ -3354,13 +3372,13 @@
         <v>87</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D95" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E95" s="2">
         <v>8</v>
@@ -3375,17 +3393,42 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="A96" s="2">
+        <v>88</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="3">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2">
+        <v>8</v>
+      </c>
+      <c r="F96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B761C734-7421-454A-BEB2-754A12EADE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43E720-C477-4EA8-8A8F-92403BEEDB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -79,26 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《英雄联盟》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《遗迹：灰烬重生》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《求生之路2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kards</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《要塞：十字军东征2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isRecently</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,26 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《战地风云2042》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《守望先锋》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《绝地求生》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《对马岛之魂》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《侠盗猎车手5》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Far Cry4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,22 +128,6 @@
   </si>
   <si>
     <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《侠盗猎车手4》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《侠盗猎车手：圣安地列斯》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《侠盗猎车手：罪恶都市》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《模拟城市3000》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,22 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《丧尸围城4》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《丧尸围城2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《丧尸围城3》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《求生之路1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L4D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,46 +195,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《赛博朋克2077》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《原子之心》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《黑神话:悟空》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《缺氧》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skyline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《模拟城市5:未来之城》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《模拟城市4：尖峰时刻》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WatchDogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《看门狗1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《看门狗2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prototype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,166 +211,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《虐杀原形1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《虐杀原形2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《消逝的光芒1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《全境封锁1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《全境封锁2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《荒野大镖客2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《死亡岛1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《死亡岛2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《热血无赖》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《使命召唤6:现代战争》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《僵尸世界大战》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《牧场物语：矿石镇的伙伴》(GBA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《戴森球计划》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《星露谷物语》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《潜水员戴夫》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《都市天际线1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《都市天际线2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《冰汽时代》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《双点医院》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Blatro（小丑牌）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《哈迪斯1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《哈迪斯2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《土豆兄弟》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《幸运房东》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《文明4》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《帝国时代2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《红色警戒2》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《星际争霸1》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《魔兽争霸3》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《海岛大亨5》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《炉石传说》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《云顶之弈》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《地下城与勇士》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《彩虹岛》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《龙之谷》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《绝区零》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:竞技类,2:动作&amp;沙盒类,3:模拟经营类,4:独立游戏&amp;Rougelike,5:RTS,6:集换式卡牌&amp;自走棋,7:手游,8:其他网游</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《荒野乱斗》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《穿越火线》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apex Legends</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《战地风云3》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spacialAchievements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,14 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《王者荣耀》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《决战平安京》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,27 +259,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《无限法则》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《人类一败涂地》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H1Z1 Battle Royale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《致命公司》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chained Together</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《一起开火车》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -561,48 +285,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>🟪：近期游玩
-💜：喜欢的游戏
-🏆：特殊成就，点击查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《英雄联盟手游》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最高段位：白金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《阴阳师》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《最强蜗牛》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《崩坏3》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《原神》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《少女前线》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《以撒的结合》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《杀戮尖塔》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CS1.5/1.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +298,295 @@
   </si>
   <si>
     <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：喜欢的游戏
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🏆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：特殊成就，点击查看</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守望先锋</t>
+  </si>
+  <si>
+    <t>绝地求生</t>
+  </si>
+  <si>
+    <t>英雄联盟</t>
+  </si>
+  <si>
+    <t>战地风云2042</t>
+  </si>
+  <si>
+    <t>战地风云3</t>
+  </si>
+  <si>
+    <t>无限法则</t>
+  </si>
+  <si>
+    <t>侠盗猎车手5</t>
+  </si>
+  <si>
+    <t>侠盗猎车手4</t>
+  </si>
+  <si>
+    <t>侠盗猎车手：圣安地列斯</t>
+  </si>
+  <si>
+    <t>侠盗猎车手：罪恶都市</t>
+  </si>
+  <si>
+    <t>对马岛之魂</t>
+  </si>
+  <si>
+    <t>全境封锁1</t>
+  </si>
+  <si>
+    <t>全境封锁2</t>
+  </si>
+  <si>
+    <t>丧尸围城4</t>
+  </si>
+  <si>
+    <t>丧尸围城3</t>
+  </si>
+  <si>
+    <t>丧尸围城2</t>
+  </si>
+  <si>
+    <t>求生之路2</t>
+  </si>
+  <si>
+    <t>求生之路1</t>
+  </si>
+  <si>
+    <t>僵尸世界大战</t>
+  </si>
+  <si>
+    <t>遗迹：灰烬重生</t>
+  </si>
+  <si>
+    <t>赛博朋克2077</t>
+  </si>
+  <si>
+    <t>原子之心</t>
+  </si>
+  <si>
+    <t>黑神话:悟空</t>
+  </si>
+  <si>
+    <t>看门狗1</t>
+  </si>
+  <si>
+    <t>看门狗2</t>
+  </si>
+  <si>
+    <t>虐杀原形1</t>
+  </si>
+  <si>
+    <t>虐杀原形2</t>
+  </si>
+  <si>
+    <t>消逝的光芒1</t>
+  </si>
+  <si>
+    <t>荒野大镖客2</t>
+  </si>
+  <si>
+    <t>死亡岛1</t>
+  </si>
+  <si>
+    <t>死亡岛2</t>
+  </si>
+  <si>
+    <t>热血无赖</t>
+  </si>
+  <si>
+    <t>使命召唤6:现代战争</t>
+  </si>
+  <si>
+    <t>潜水员戴夫</t>
+  </si>
+  <si>
+    <t>星露谷物语</t>
+  </si>
+  <si>
+    <t>牧场物语：矿石镇的伙伴(GBA)</t>
+  </si>
+  <si>
+    <t>戴森球计划</t>
+  </si>
+  <si>
+    <t>缺氧</t>
+  </si>
+  <si>
+    <t>模拟城市4：尖峰时刻</t>
+  </si>
+  <si>
+    <t>模拟城市3000</t>
+  </si>
+  <si>
+    <t>模拟城市5:未来之城</t>
+  </si>
+  <si>
+    <t>都市天际线1</t>
+  </si>
+  <si>
+    <t>都市天际线2</t>
+  </si>
+  <si>
+    <t>冰汽时代</t>
+  </si>
+  <si>
+    <t>双点医院</t>
+  </si>
+  <si>
+    <t>哈迪斯1</t>
+  </si>
+  <si>
+    <t>哈迪斯2</t>
+  </si>
+  <si>
+    <t>土豆兄弟</t>
+  </si>
+  <si>
+    <t>幸运房东</t>
+  </si>
+  <si>
+    <t>人类一败涂地</t>
+  </si>
+  <si>
+    <t>致命公司</t>
+  </si>
+  <si>
+    <t>一起开火车</t>
+  </si>
+  <si>
+    <t>文明4</t>
+  </si>
+  <si>
+    <t>帝国时代2</t>
+  </si>
+  <si>
+    <t>红色警戒2</t>
+  </si>
+  <si>
+    <t>要塞：十字军东征2</t>
+  </si>
+  <si>
+    <t>星际争霸1</t>
+  </si>
+  <si>
+    <t>魔兽争霸3</t>
+  </si>
+  <si>
+    <t>海岛大亨5</t>
+  </si>
+  <si>
+    <t>以撒的结合</t>
+  </si>
+  <si>
+    <t>杀戮尖塔</t>
+  </si>
+  <si>
+    <t>炉石传说</t>
+  </si>
+  <si>
+    <t>决战平安京</t>
+  </si>
+  <si>
+    <t>王者荣耀</t>
+  </si>
+  <si>
+    <t>绝区零</t>
+  </si>
+  <si>
+    <t>荒野乱斗</t>
+  </si>
+  <si>
+    <t>英雄联盟手游</t>
+  </si>
+  <si>
+    <t>阴阳师</t>
+  </si>
+  <si>
+    <t>最强蜗牛</t>
+  </si>
+  <si>
+    <t>崩坏3</t>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>少女前线</t>
+  </si>
+  <si>
+    <t>云顶之弈</t>
+  </si>
+  <si>
+    <t>地下城与勇士</t>
+  </si>
+  <si>
+    <t>彩虹岛</t>
+  </si>
+  <si>
+    <t>龙之谷</t>
+  </si>
+  <si>
+    <t>穿越火线</t>
+  </si>
+  <si>
+    <t>品质标签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:S,5:A,4:B,3:C,2:D,1:E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +594,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +651,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -720,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +733,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1070,15 +1059,13 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="29.375" customWidth="1"/>
-    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1089,18 +1076,18 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1108,18 +1095,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>131</v>
+      <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1127,27 +1114,31 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1155,357 +1146,385 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="I9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>278</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="H10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
+        <v>400</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>1757</v>
       </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8000</v>
-      </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" s="3">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>300</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>124</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>11</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1518,173 +1537,192 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
         <v>445</v>
       </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>100</v>
       </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8">
         <v>50</v>
       </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="8">
         <v>200</v>
       </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="3">
         <v>50</v>
       </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>18</v>
-      </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -1696,20 +1734,23 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1721,20 +1762,23 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1746,20 +1790,23 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1771,20 +1818,23 @@
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -1796,20 +1846,23 @@
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -1821,20 +1874,23 @@
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1843,48 +1899,54 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
+        <v>53</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33">
         <v>6</v>
       </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -1895,19 +1957,24 @@
       <c r="G34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -1920,19 +1987,20 @@
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -1941,22 +2009,26 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="b">
-        <f>$F$38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
@@ -1965,72 +2037,78 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="b">
-        <v>0</v>
+        <f>$F$39</f>
+        <v>1</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
       </c>
       <c r="F38" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
         <v>31</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="3">
-        <v>10</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2</v>
-      </c>
-      <c r="F39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
-        <v>32</v>
-      </c>
       <c r="B40" s="3" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D40" s="3">
         <v>10</v>
@@ -2045,99 +2123,115 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="3">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
         <v>33</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="3">
         <v>15</v>
       </c>
-      <c r="E41" s="2">
-        <v>2</v>
-      </c>
-      <c r="F41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
         <v>34</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="3">
         <v>5</v>
       </c>
-      <c r="E42" s="2">
-        <v>2</v>
-      </c>
-      <c r="F42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
         <v>35</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="3">
         <v>8</v>
-      </c>
-      <c r="E43" s="2">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
-        <v>36</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <v>20</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
@@ -2150,17 +2244,20 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
@@ -2169,44 +2266,48 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
       </c>
       <c r="F46" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
@@ -2216,24 +2317,29 @@
         <v>2</v>
       </c>
       <c r="F47" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -2242,46 +2348,52 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2">
         <v>3</v>
@@ -2294,19 +2406,20 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
@@ -2315,21 +2428,26 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D52" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E52" s="2">
         <v>3</v>
@@ -2338,21 +2456,24 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E53" s="2">
         <v>3</v>
@@ -2365,73 +2486,78 @@
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2">
         <v>3</v>
       </c>
       <c r="F54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D55" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
       </c>
       <c r="F55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D56" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
@@ -2443,20 +2569,25 @@
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D57" s="3">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
@@ -2468,68 +2599,79 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
       </c>
       <c r="F58" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
       </c>
       <c r="F59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
@@ -2542,92 +2684,102 @@
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E61" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
+        <v>53</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
+        <v>104</v>
+      </c>
+      <c r="E62" s="2">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
         <v>54</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="3">
         <v>10</v>
       </c>
-      <c r="E62" s="2">
-        <v>4</v>
-      </c>
-      <c r="F62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
+      <c r="E63" s="2">
+        <v>4</v>
+      </c>
+      <c r="F63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
         <v>55</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3">
-        <v>39</v>
-      </c>
-      <c r="E63" s="2">
-        <v>4</v>
-      </c>
-      <c r="F63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
-        <v>56</v>
-      </c>
       <c r="B64" s="3" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E64" s="2">
         <v>4</v>
@@ -2636,21 +2788,26 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2">
         <v>4</v>
@@ -2659,21 +2816,24 @@
         <v>0</v>
       </c>
       <c r="G65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2">
         <v>4</v>
@@ -2682,21 +2842,24 @@
         <v>0</v>
       </c>
       <c r="G66" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E67" s="2">
         <v>4</v>
@@ -2709,17 +2872,20 @@
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
@@ -2732,17 +2898,20 @@
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>61</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E69" s="2">
         <v>4</v>
@@ -2755,17 +2924,20 @@
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E70" s="2">
         <v>4</v>
@@ -2778,20 +2950,23 @@
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>63</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E71" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" s="2" t="b">
         <v>0</v>
@@ -2801,19 +2976,20 @@
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C72" s="3"/>
       <c r="D72" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
@@ -2826,16 +3002,19 @@
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D73" s="3">
         <v>100</v>
@@ -2851,19 +3030,22 @@
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D74" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2">
         <v>5</v>
@@ -2872,23 +3054,26 @@
         <v>0</v>
       </c>
       <c r="G74" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D75" s="3">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E75" s="2">
         <v>5</v>
@@ -2897,23 +3082,26 @@
         <v>0</v>
       </c>
       <c r="G75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E76" s="2">
         <v>5</v>
@@ -2926,17 +3114,22 @@
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D77" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2">
         <v>5</v>
@@ -2949,17 +3142,20 @@
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E78" s="2">
         <v>5</v>
@@ -2972,65 +3168,74 @@
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E79" s="2">
         <v>5</v>
       </c>
       <c r="F79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E80" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D81" s="3">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2">
         <v>6</v>
@@ -3039,50 +3244,52 @@
         <v>0</v>
       </c>
       <c r="G81" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
+        <v>73</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
+        <v>56</v>
+      </c>
+      <c r="E82" s="2">
+        <v>6</v>
+      </c>
+      <c r="F82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
         <v>74</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="3">
+      <c r="B83" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="3">
         <v>120</v>
-      </c>
-      <c r="E82" s="2">
-        <v>7</v>
-      </c>
-      <c r="F82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="2">
-        <v>75</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="3">
-        <v>70</v>
       </c>
       <c r="E83" s="2">
         <v>7</v>
@@ -3095,19 +3302,24 @@
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D84" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E84" s="2">
         <v>7</v>
@@ -3116,23 +3328,26 @@
         <v>0</v>
       </c>
       <c r="G84" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C85" s="3"/>
       <c r="D85" s="3">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E85" s="2">
         <v>7</v>
@@ -3141,23 +3356,26 @@
         <v>0</v>
       </c>
       <c r="G85" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D86" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E86" s="2">
         <v>7</v>
@@ -3169,20 +3387,23 @@
         <v>0</v>
       </c>
       <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I86" s="2"/>
+      <c r="J86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D87" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2">
         <v>7</v>
@@ -3194,18 +3415,23 @@
         <v>0</v>
       </c>
       <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I87" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E88" s="2">
         <v>7</v>
@@ -3218,17 +3444,20 @@
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2">
         <v>7</v>
@@ -3241,19 +3470,20 @@
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C90" s="3"/>
       <c r="D90" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E90" s="2">
         <v>7</v>
@@ -3266,17 +3496,22 @@
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D91" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E91" s="2">
         <v>7</v>
@@ -3289,71 +3524,78 @@
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="J91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
+        <v>83</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3">
+        <v>100</v>
+      </c>
+      <c r="E92" s="2">
+        <v>7</v>
+      </c>
+      <c r="F92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
         <v>84</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" s="3">
+      <c r="B93" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="3">
         <v>300</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E93" s="2">
         <v>6</v>
       </c>
-      <c r="F92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="2"/>
-      <c r="I92" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="2">
+      <c r="F93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
         <v>85</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D93" s="3">
+      <c r="B94" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="3">
         <v>40</v>
-      </c>
-      <c r="E93" s="2">
-        <v>8</v>
-      </c>
-      <c r="F93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A94" s="2">
-        <v>86</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D94" s="3">
-        <v>80</v>
       </c>
       <c r="E94" s="2">
         <v>8</v>
@@ -3366,19 +3608,22 @@
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D95" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2">
         <v>8</v>
@@ -3391,19 +3636,22 @@
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D96" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E96" s="2">
         <v>8</v>
@@ -3416,19 +3664,50 @@
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="J96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>88</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="3">
+        <v>100</v>
+      </c>
+      <c r="E97" s="2">
+        <v>8</v>
+      </c>
+      <c r="F97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
+      <c r="J97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43E720-C477-4EA8-8A8F-92403BEEDB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B66E01-1F7F-453B-BB0D-8C76AA76D6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$98</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -586,7 +589,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6:S,5:A,4:B,3:C,2:D,1:E</t>
+    <t>6:大师之作,5:奇佳,4:卓越,3:优秀,2:尚可,1:平庸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,8 +1047,8 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,7 +1285,7 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1962,7 +1965,7 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2543,7 +2546,7 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2603,7 +2606,7 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2847,7 +2850,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2873,7 +2876,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2925,7 +2928,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2951,7 +2954,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3087,7 +3090,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3115,7 +3118,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3169,7 +3172,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3195,7 +3198,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3221,7 +3224,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3249,7 +3252,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3275,7 +3278,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3305,7 +3308,7 @@
         <v>55</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3335,7 +3338,7 @@
         <v>54</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3361,7 +3364,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3389,7 +3392,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3419,7 +3422,7 @@
         <v>62</v>
       </c>
       <c r="J87">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3445,7 +3448,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3471,7 +3474,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3497,7 +3500,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3525,7 +3528,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3551,7 +3554,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
@@ -3581,7 +3584,7 @@
         <v>59</v>
       </c>
       <c r="J93">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3609,7 +3612,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3637,7 +3640,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3665,7 +3668,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3693,7 +3696,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3710,6 +3713,7 @@
       <c r="I98" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B66E01-1F7F-453B-BB0D-8C76AA76D6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A4C41-6CA9-4B21-BAD0-36C76BEC258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -289,10 +289,6 @@
   </si>
   <si>
     <t>最高段位：白金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS1.5/1.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -591,6 +587,77 @@
   <si>
     <t>6:大师之作,5:奇佳,4:卓越,3:优秀,2:尚可,1:平庸</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALORANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚蓝档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨中冒险2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS 1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horizon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Last of Us 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角洲行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分手厨房2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦陨落1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦陨落2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitanFall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼幸存者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Borderlands</t>
   </si>
 </sst>
 </file>
@@ -1044,24 +1111,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="53.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
   </cols>
@@ -1100,16 +1167,16 @@
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1128,7 +1195,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1193,7 +1260,7 @@
         <v>51</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1257,7 +1324,7 @@
         <v>49</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1281,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10">
@@ -1293,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -1321,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
@@ -1349,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
@@ -1379,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>34</v>
@@ -1409,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
@@ -1465,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -1481,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17">
@@ -1493,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
@@ -1511,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18">
@@ -1549,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
@@ -1575,24 +1642,22 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21">
         <v>6</v>
@@ -1603,13 +1668,11 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="8">
-        <v>100</v>
+        <v>162</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>16</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1621,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22">
@@ -1633,13 +1696,11 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="8">
-        <v>50</v>
+        <v>163</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>8</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1651,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23">
@@ -1663,13 +1724,11 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="8">
-        <v>200</v>
+        <v>164</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1678,14 +1737,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1693,13 +1752,11 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1710,10 +1767,12 @@
       <c r="G25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1721,11 +1780,11 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -1737,11 +1796,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1749,11 +1808,11 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
-        <v>42</v>
+        <v>445</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1762,14 +1821,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1777,11 +1836,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
-        <v>8</v>
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="8">
+        <v>100</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1793,11 +1854,11 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1805,11 +1866,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="8">
+        <v>50</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1821,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29">
@@ -1833,27 +1896,29 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="8">
+        <v>200</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1861,11 +1926,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D31" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -1876,12 +1943,10 @@
       <c r="G31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1889,11 +1954,11 @@
         <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1905,11 +1970,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1917,11 +1982,11 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -1930,14 +1995,14 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1945,11 +2010,11 @@
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -1961,11 +2026,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1973,11 +2038,11 @@
         <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -1988,10 +2053,12 @@
       <c r="G35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1999,11 +2066,11 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -2014,10 +2081,12 @@
       <c r="G36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2025,13 +2094,11 @@
         <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
@@ -2040,13 +2107,14 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="b">
-        <f>$F$39</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2054,11 +2122,11 @@
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
@@ -2069,7 +2137,9 @@
       <c r="G38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38">
         <v>4</v>
@@ -2080,27 +2150,27 @@
         <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
       </c>
       <c r="F39" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2108,13 +2178,11 @@
         <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2126,11 +2194,11 @@
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2138,13 +2206,11 @@
         <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -2155,9 +2221,7 @@
       <c r="G41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41">
         <v>2</v>
@@ -2168,13 +2232,11 @@
         <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -2185,9 +2247,7 @@
       <c r="G42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42">
         <v>3</v>
@@ -2198,13 +2258,13 @@
         <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="3">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2">
         <v>2</v>
@@ -2213,14 +2273,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>42</v>
-      </c>
+        <f>$F$45</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2228,13 +2287,11 @@
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
@@ -2248,7 +2305,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2256,17 +2313,19 @@
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D45" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
       </c>
       <c r="F45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2" t="b">
         <v>0</v>
@@ -2274,7 +2333,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2282,11 +2341,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D46" s="3">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
@@ -2295,14 +2356,14 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2310,23 +2371,25 @@
         <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D47" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
       </c>
       <c r="F47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47">
@@ -2338,11 +2401,13 @@
         <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D48" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -2353,10 +2418,12 @@
       <c r="G48" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2364,11 +2431,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D49" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2">
         <v>2</v>
@@ -2377,14 +2446,14 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2392,14 +2461,16 @@
         <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D50" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="2" t="b">
         <v>0</v>
@@ -2410,7 +2481,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2418,14 +2489,14 @@
         <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="2" t="b">
         <v>0</v>
@@ -2436,7 +2507,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2444,16 +2515,14 @@
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="2" t="b">
         <v>0</v>
@@ -2461,10 +2530,12 @@
       <c r="G52" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2472,25 +2543,27 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I53" s="2"/>
       <c r="J53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2498,14 +2571,14 @@
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="2" t="b">
         <v>0</v>
@@ -2516,7 +2589,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2524,25 +2597,23 @@
         <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C55" s="3"/>
       <c r="D55" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55">
@@ -2554,29 +2625,23 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="3">
         <v>10</v>
       </c>
-      <c r="E56" s="2">
-        <v>3</v>
-      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2584,16 +2649,14 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2" t="b">
         <v>0</v>
@@ -2602,11 +2665,11 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2614,14 +2677,14 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2" t="b">
         <v>0</v>
@@ -2630,11 +2693,11 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2642,27 +2705,25 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
       </c>
       <c r="F59" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2670,11 +2731,11 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
@@ -2688,7 +2749,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2696,11 +2757,11 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -2714,7 +2775,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2722,17 +2783,19 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D62" s="3">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2" t="b">
         <v>1</v>
@@ -2740,7 +2803,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2748,16 +2811,14 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="3">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E63" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" s="2" t="b">
         <v>0</v>
@@ -2765,9 +2826,7 @@
       <c r="G63" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63">
         <v>4</v>
@@ -2778,27 +2837,25 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2806,25 +2863,29 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D65" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E65" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2832,25 +2893,29 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D66" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2858,14 +2923,16 @@
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D67" s="3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E67" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" s="2" t="b">
         <v>0</v>
@@ -2873,10 +2940,12 @@
       <c r="G67" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I67" s="2"/>
       <c r="J67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2884,14 +2953,14 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" s="2" t="b">
         <v>0</v>
@@ -2899,10 +2968,12 @@
       <c r="G68" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2910,40 +2981,42 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E69" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>61</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>120</v>
+      <c r="B70" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" s="2" t="b">
         <v>0</v>
@@ -2954,22 +3027,22 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>62</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>58</v>
+      <c r="B71" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2" t="b">
         <v>0</v>
@@ -2988,14 +3061,14 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E72" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" s="2" t="b">
         <v>0</v>
@@ -3006,7 +3079,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3014,22 +3087,20 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -3042,16 +3113,16 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="2" t="b">
         <v>0</v>
@@ -3059,10 +3130,12 @@
       <c r="G74" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3070,16 +3143,14 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="3">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="E75" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" s="2" t="b">
         <v>0</v>
@@ -3087,10 +3158,12 @@
       <c r="G75" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3098,16 +3171,14 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C76" s="3"/>
       <c r="D76" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" s="2" t="b">
         <v>0</v>
@@ -3118,7 +3189,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3126,22 +3197,20 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C77" s="3"/>
       <c r="D77" s="3">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3154,14 +3223,14 @@
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E78" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" s="2" t="b">
         <v>0</v>
@@ -3172,7 +3241,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3180,14 +3249,14 @@
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E79" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" s="2" t="b">
         <v>0</v>
@@ -3198,7 +3267,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3206,42 +3275,40 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E80" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>72</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="3"/>
       <c r="D81" s="3">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="E81" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F81" s="2" t="b">
         <v>0</v>
@@ -3259,21 +3326,21 @@
       <c r="A82" s="2">
         <v>73</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>12</v>
+      <c r="B82" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E82" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F82" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -3285,17 +3352,15 @@
       <c r="A83" s="2">
         <v>74</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="3"/>
       <c r="D83" s="3">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E83" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F83" s="2" t="b">
         <v>0</v>
@@ -3304,11 +3369,9 @@
         <v>0</v>
       </c>
       <c r="H83" s="2"/>
-      <c r="I83" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I83" s="2"/>
       <c r="J83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3316,16 +3379,14 @@
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E84" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F84" s="2" t="b">
         <v>0</v>
@@ -3334,11 +3395,9 @@
         <v>0</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="I84" s="2"/>
       <c r="J84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3346,25 +3405,27 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D85" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F85" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G85" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3372,16 +3433,16 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F86" s="2" t="b">
         <v>0</v>
@@ -3392,7 +3453,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3400,29 +3461,27 @@
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" s="3">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F87" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G87" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="2"/>
-      <c r="I87" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I87" s="2"/>
       <c r="J87">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3430,14 +3489,16 @@
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D88" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E88" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F88" s="2" t="b">
         <v>0</v>
@@ -3448,7 +3509,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3456,14 +3517,16 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D89" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F89" s="2" t="b">
         <v>0</v>
@@ -3474,7 +3537,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3482,14 +3545,14 @@
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
         <v>30</v>
       </c>
       <c r="E90" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F90" s="2" t="b">
         <v>0</v>
@@ -3500,7 +3563,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3508,16 +3571,14 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E91" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F91" s="2" t="b">
         <v>0</v>
@@ -3528,7 +3589,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3536,39 +3597,39 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E92" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F92" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2">
         <v>6</v>
@@ -3580,11 +3641,9 @@
         <v>0</v>
       </c>
       <c r="H93" s="2"/>
-      <c r="I93" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="I93" s="2"/>
       <c r="J93">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3592,27 +3651,25 @@
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E94" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F94" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3620,16 +3677,16 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D95" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" s="2" t="b">
         <v>0</v>
@@ -3638,9 +3695,11 @@
         <v>0</v>
       </c>
       <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+      <c r="I95" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J95">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3648,16 +3707,16 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D96" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E96" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" s="2" t="b">
         <v>0</v>
@@ -3666,7 +3725,9 @@
         <v>0</v>
       </c>
       <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
+      <c r="I96" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="J96">
         <v>1</v>
       </c>
@@ -3676,44 +3737,426 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C97" s="3"/>
       <c r="D97" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E97" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G97" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+      <c r="A98" s="2">
+        <v>89</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="3">
+        <v>200</v>
+      </c>
+      <c r="E98" s="2">
+        <v>7</v>
+      </c>
+      <c r="F98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
+      <c r="J98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>90</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="3">
+        <v>80</v>
+      </c>
+      <c r="E99" s="2">
+        <v>7</v>
+      </c>
+      <c r="F99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>91</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3">
+        <v>50</v>
+      </c>
+      <c r="E100" s="2">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
+        <v>92</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3">
+        <v>80</v>
+      </c>
+      <c r="E101" s="2">
+        <v>7</v>
+      </c>
+      <c r="F101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
+        <v>93</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3">
+        <v>30</v>
+      </c>
+      <c r="E102" s="2">
+        <v>7</v>
+      </c>
+      <c r="F102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
+        <v>94</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="3">
+        <v>10</v>
+      </c>
+      <c r="E103" s="2">
+        <v>7</v>
+      </c>
+      <c r="F103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>95</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3">
+        <v>100</v>
+      </c>
+      <c r="E104" s="2">
+        <v>7</v>
+      </c>
+      <c r="F104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>96</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3">
+        <v>50</v>
+      </c>
+      <c r="E105" s="2">
+        <v>7</v>
+      </c>
+      <c r="F105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>97</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="3">
+        <v>300</v>
+      </c>
+      <c r="E106" s="2">
+        <v>6</v>
+      </c>
+      <c r="F106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>98</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="3">
+        <v>40</v>
+      </c>
+      <c r="E107" s="2">
+        <v>8</v>
+      </c>
+      <c r="F107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>99</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="3">
+        <v>80</v>
+      </c>
+      <c r="E108" s="2">
+        <v>8</v>
+      </c>
+      <c r="F108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>100</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="3">
+        <v>20</v>
+      </c>
+      <c r="E109" s="2">
+        <v>8</v>
+      </c>
+      <c r="F109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>101</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="3">
+        <v>100</v>
+      </c>
+      <c r="E110" s="2">
+        <v>8</v>
+      </c>
+      <c r="F110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A111" s="2">
+        <v>102</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3">
+        <v>5</v>
+      </c>
+      <c r="E111" s="2">
+        <v>8</v>
+      </c>
+      <c r="F111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="J1:J112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A4C41-6CA9-4B21-BAD0-36C76BEC258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B11CF0-E2A8-483E-8459-377D099C807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="252">
   <si>
     <t>id</t>
   </si>
@@ -215,10 +215,6 @@
   </si>
   <si>
     <t>COD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blatro（小丑牌）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,255 +405,614 @@
     <t>赛博朋克2077</t>
   </si>
   <si>
+    <t>黑神话:悟空</t>
+  </si>
+  <si>
+    <t>看门狗2</t>
+  </si>
+  <si>
+    <t>虐杀原形1</t>
+  </si>
+  <si>
+    <t>虐杀原形2</t>
+  </si>
+  <si>
+    <t>消逝的光芒1</t>
+  </si>
+  <si>
+    <t>荒野大镖客2</t>
+  </si>
+  <si>
+    <t>死亡岛1</t>
+  </si>
+  <si>
+    <t>死亡岛2</t>
+  </si>
+  <si>
+    <t>热血无赖</t>
+  </si>
+  <si>
+    <t>使命召唤6:现代战争</t>
+  </si>
+  <si>
+    <t>潜水员戴夫</t>
+  </si>
+  <si>
+    <t>星露谷物语</t>
+  </si>
+  <si>
+    <t>缺氧</t>
+  </si>
+  <si>
+    <t>模拟城市4：尖峰时刻</t>
+  </si>
+  <si>
+    <t>模拟城市3000</t>
+  </si>
+  <si>
+    <t>模拟城市5:未来之城</t>
+  </si>
+  <si>
+    <t>都市天际线1</t>
+  </si>
+  <si>
+    <t>都市天际线2</t>
+  </si>
+  <si>
+    <t>冰汽时代</t>
+  </si>
+  <si>
+    <t>双点医院</t>
+  </si>
+  <si>
+    <t>土豆兄弟</t>
+  </si>
+  <si>
+    <t>幸运房东</t>
+  </si>
+  <si>
+    <t>人类一败涂地</t>
+  </si>
+  <si>
+    <t>致命公司</t>
+  </si>
+  <si>
+    <t>一起开火车</t>
+  </si>
+  <si>
+    <t>文明4</t>
+  </si>
+  <si>
+    <t>帝国时代2</t>
+  </si>
+  <si>
+    <t>红色警戒2</t>
+  </si>
+  <si>
+    <t>要塞：十字军东征2</t>
+  </si>
+  <si>
+    <t>星际争霸1</t>
+  </si>
+  <si>
+    <t>魔兽争霸3</t>
+  </si>
+  <si>
+    <t>海岛大亨5</t>
+  </si>
+  <si>
+    <t>以撒的结合</t>
+  </si>
+  <si>
+    <t>决战平安京</t>
+  </si>
+  <si>
+    <t>王者荣耀</t>
+  </si>
+  <si>
+    <t>绝区零</t>
+  </si>
+  <si>
+    <t>荒野乱斗</t>
+  </si>
+  <si>
+    <t>阴阳师</t>
+  </si>
+  <si>
+    <t>最强蜗牛</t>
+  </si>
+  <si>
+    <t>崩坏3</t>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>地下城与勇士</t>
+  </si>
+  <si>
+    <t>彩虹岛</t>
+  </si>
+  <si>
+    <t>龙之谷</t>
+  </si>
+  <si>
+    <t>穿越火线</t>
+  </si>
+  <si>
+    <t>品质标签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:大师之作,5:奇佳,4:卓越,3:优秀,2:尚可,1:平庸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALORANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚蓝档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨中冒险2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS 1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horizon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Last of Us 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角洲行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分手厨房2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦陨落2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitanFall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼幸存者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Borderlands</t>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体好直接开睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩 步兵最好玩的一集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放炸弹拆炸弹游戏的祖宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国人魔改枪战游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把吃鸡做明白了 腾讯没想明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似早期作弊猎豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小科比找妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩x2 想出射击挖宝的是天才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩x3 想出射击挖宝的是天才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩x1 想出射击挖宝的是天才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远超APEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还行 刚出优化太差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢cosplay日本人就玩这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情烂尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢割草 爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打僵尸带技能 养成曲线有点怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人称射击挖宝 带联网 带充值内购 疑似被腾讯资方视察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人称射击挖宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑酷打僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢cosplay西部牛仔就玩这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打僵尸小神作 养成曲线完美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不如一代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COD最好玩的一集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩 电视剧也好看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得用手柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越一代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天际线没出之前 模拟城市类型的划时代神作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑子带包想出来模拟城市联网的玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代模拟城市神作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有望继承模拟城市神作头衔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末世政治模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被同事骗着买的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德州肉鸽 神中神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩 喜欢割草 就是容易睡着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从DOS一路换皮到WIN11 钱真好赚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没四代好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科幻苦力模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电工模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国人不会做模拟经营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般 手忙脚乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧场物语：矿石镇的伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化版牧场物语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童年的神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐氏绝地求生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS割草大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天亮了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史题材RTS神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中世纪RTS神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还行 我不喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB也能当策划？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无厘头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比干农活好玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢干农活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳头做的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩3电脑版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这也能成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活到今天全靠玩家自制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭能解决问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮尖塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉，死亡与机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉石传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会出男性人物？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄联盟手游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女前线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云顶之弈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小超APEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位招租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港GTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的G7没我的G8长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说匹配和排位在同一个池子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴森球计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我叫磁力棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼雷炸飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：这项改动极为大胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还挺骄傲？有什么用？一个2分钟一把的4399小游戏，拿出去给人说自己成天苦练一个4399凉批小游戏，谁不在心里暗骂你一句s比？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balatro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hades II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐头神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>原子之心</t>
-  </si>
-  <si>
-    <t>黑神话:悟空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大名鼎鼎的冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴，你个王八蛋！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>看门狗1</t>
-  </si>
-  <si>
-    <t>看门狗2</t>
-  </si>
-  <si>
-    <t>虐杀原形1</t>
-  </si>
-  <si>
-    <t>虐杀原形2</t>
-  </si>
-  <si>
-    <t>消逝的光芒1</t>
-  </si>
-  <si>
-    <t>荒野大镖客2</t>
-  </si>
-  <si>
-    <t>死亡岛1</t>
-  </si>
-  <si>
-    <t>死亡岛2</t>
-  </si>
-  <si>
-    <t>热血无赖</t>
-  </si>
-  <si>
-    <t>使命召唤6:现代战争</t>
-  </si>
-  <si>
-    <t>潜水员戴夫</t>
-  </si>
-  <si>
-    <t>星露谷物语</t>
-  </si>
-  <si>
-    <t>牧场物语：矿石镇的伙伴(GBA)</t>
-  </si>
-  <si>
-    <t>戴森球计划</t>
-  </si>
-  <si>
-    <t>缺氧</t>
-  </si>
-  <si>
-    <t>模拟城市4：尖峰时刻</t>
-  </si>
-  <si>
-    <t>模拟城市3000</t>
-  </si>
-  <si>
-    <t>模拟城市5:未来之城</t>
-  </si>
-  <si>
-    <t>都市天际线1</t>
-  </si>
-  <si>
-    <t>都市天际线2</t>
-  </si>
-  <si>
-    <t>冰汽时代</t>
-  </si>
-  <si>
-    <t>双点医院</t>
-  </si>
-  <si>
-    <t>哈迪斯1</t>
-  </si>
-  <si>
-    <t>哈迪斯2</t>
-  </si>
-  <si>
-    <t>土豆兄弟</t>
-  </si>
-  <si>
-    <t>幸运房东</t>
-  </si>
-  <si>
-    <t>人类一败涂地</t>
-  </si>
-  <si>
-    <t>致命公司</t>
-  </si>
-  <si>
-    <t>一起开火车</t>
-  </si>
-  <si>
-    <t>文明4</t>
-  </si>
-  <si>
-    <t>帝国时代2</t>
-  </si>
-  <si>
-    <t>红色警戒2</t>
-  </si>
-  <si>
-    <t>要塞：十字军东征2</t>
-  </si>
-  <si>
-    <t>星际争霸1</t>
-  </si>
-  <si>
-    <t>魔兽争霸3</t>
-  </si>
-  <si>
-    <t>海岛大亨5</t>
-  </si>
-  <si>
-    <t>以撒的结合</t>
-  </si>
-  <si>
-    <t>杀戮尖塔</t>
-  </si>
-  <si>
-    <t>炉石传说</t>
-  </si>
-  <si>
-    <t>决战平安京</t>
-  </si>
-  <si>
-    <t>王者荣耀</t>
-  </si>
-  <si>
-    <t>绝区零</t>
-  </si>
-  <si>
-    <t>荒野乱斗</t>
-  </si>
-  <si>
-    <t>英雄联盟手游</t>
-  </si>
-  <si>
-    <t>阴阳师</t>
-  </si>
-  <si>
-    <t>最强蜗牛</t>
-  </si>
-  <si>
-    <t>崩坏3</t>
-  </si>
-  <si>
-    <t>原神</t>
-  </si>
-  <si>
-    <t>少女前线</t>
-  </si>
-  <si>
-    <t>云顶之弈</t>
-  </si>
-  <si>
-    <t>地下城与勇士</t>
-  </si>
-  <si>
-    <t>彩虹岛</t>
-  </si>
-  <si>
-    <t>龙之谷</t>
-  </si>
-  <si>
-    <t>穿越火线</t>
-  </si>
-  <si>
-    <t>品质标签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:大师之作,5:奇佳,4:卓越,3:优秀,2:尚可,1:平庸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALORANT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔚蓝档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨中冒险2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS 1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地平线4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地平线5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Horizon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Last of Us 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三角洲行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分手厨房2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰坦陨落1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰坦陨落2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitanFall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血鬼幸存者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无主之地1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无主之地2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无主之地3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Borderlands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用心做游戏，用脚做平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国外玩家社群在首发时把专家系统吐槽为APEX2042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用心做CG，用脚做游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神作的爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神作的爷爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G胖不会数三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎先锋三拳干碎我的大圣梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦陨落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -733,7 +1088,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,8 +1101,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -770,13 +1131,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +1180,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,11 +1494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,10 +1513,11 @@
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="121.875" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1530,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1157,7 +1541,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1165,18 +1549,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1184,7 +1568,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1195,7 +1579,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1203,7 +1587,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1216,7 +1600,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1615,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1257,13 +1641,16 @@
         <v>18</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1289,13 +1676,16 @@
         <v>8</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1321,13 +1711,16 @@
         <v>19</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1348,19 +1741,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K10" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -1377,18 +1773,21 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.15">
+      <c r="K11" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
@@ -1405,18 +1804,21 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="57" x14ac:dyDescent="0.15">
+      <c r="K12" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
@@ -1435,18 +1837,21 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K13" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>34</v>
@@ -1464,19 +1869,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K14" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
@@ -1494,19 +1902,22 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K15" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
@@ -1526,13 +1937,16 @@
       <c r="J16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K16" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -1548,19 +1962,22 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K17" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
@@ -1578,19 +1995,22 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K18" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
@@ -1610,13 +2030,16 @@
       <c r="J19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K19" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
@@ -1634,15 +2057,18 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
@@ -1662,13 +2088,16 @@
       <c r="J21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K21" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
@@ -1684,19 +2113,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
@@ -1712,19 +2144,22 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K23" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
@@ -1740,19 +2175,22 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K24" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -1768,19 +2206,22 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K25" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
@@ -1796,19 +2237,22 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K26" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
@@ -1830,13 +2274,16 @@
       <c r="J27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K27" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>34</v>
@@ -1860,13 +2307,16 @@
       <c r="J28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K28" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>34</v>
@@ -1890,13 +2340,16 @@
       <c r="J29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K29" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>34</v>
@@ -1920,13 +2373,16 @@
       <c r="J30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K30" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>34</v>
@@ -1948,13 +2404,16 @@
       <c r="J31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K31" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
@@ -1976,13 +2435,16 @@
       <c r="J32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K32" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
@@ -2002,10 +2464,13 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>25</v>
       </c>
@@ -2032,8 +2497,11 @@
       <c r="J34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K34" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>26</v>
       </c>
@@ -2060,13 +2528,16 @@
       <c r="J35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K35" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
@@ -2088,13 +2559,16 @@
       <c r="J36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K36" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
@@ -2114,15 +2588,18 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3">
@@ -2142,15 +2619,18 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
@@ -2172,13 +2652,16 @@
       <c r="J39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K39" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3">
@@ -2198,15 +2681,16 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3">
@@ -2226,13 +2710,16 @@
       <c r="J41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K41" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3">
@@ -2252,13 +2739,14 @@
       <c r="J42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>34</v>
@@ -2281,13 +2769,16 @@
       <c r="J43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K43" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -2307,13 +2798,16 @@
       <c r="J44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K44" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>34</v>
@@ -2335,13 +2829,16 @@
       <c r="J45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K45" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>34</v>
@@ -2365,13 +2862,14 @@
       <c r="J46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>34</v>
@@ -2395,13 +2893,14 @@
       <c r="J47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>34</v>
@@ -2425,13 +2924,14 @@
       <c r="J48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>34</v>
@@ -2455,13 +2955,16 @@
       <c r="J49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K49" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>34</v>
@@ -2483,13 +2986,16 @@
       <c r="J50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K50" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
@@ -2509,13 +3015,16 @@
       <c r="J51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K51" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
@@ -2537,13 +3046,16 @@
       <c r="J52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K52" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
@@ -2565,13 +3077,16 @@
       <c r="J53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K53" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3">
@@ -2591,13 +3106,16 @@
       <c r="J54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K54" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3">
@@ -2619,13 +3137,16 @@
       <c r="J55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K55" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3">
@@ -2643,13 +3164,16 @@
       <c r="J56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K56" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3">
@@ -2665,19 +3189,22 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K57" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
@@ -2693,19 +3220,22 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K58" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
@@ -2725,13 +3255,16 @@
       <c r="J59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K59" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3">
@@ -2751,13 +3284,16 @@
       <c r="J60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K60" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
@@ -2775,15 +3311,18 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>34</v>
@@ -2803,15 +3342,18 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3">
@@ -2829,15 +3371,18 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
@@ -2857,13 +3402,16 @@
       <c r="J64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K64" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>34</v>
@@ -2887,13 +3435,16 @@
       <c r="J65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K65" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>34</v>
@@ -2917,13 +3468,16 @@
       <c r="J66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K66" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>34</v>
@@ -2947,13 +3501,16 @@
       <c r="J67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K67" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
@@ -2975,13 +3532,16 @@
       <c r="J68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K68" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3">
@@ -3003,13 +3563,16 @@
       <c r="J69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K69" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
@@ -3029,13 +3592,16 @@
       <c r="J70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K70" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
@@ -3055,13 +3621,16 @@
       <c r="J71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K71" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
@@ -3079,15 +3648,18 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3">
@@ -3107,13 +3679,16 @@
       <c r="J73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K73" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>34</v>
@@ -3131,19 +3706,22 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K74" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3">
@@ -3159,19 +3737,22 @@
         <v>1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K75" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
@@ -3189,15 +3770,18 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
@@ -3217,13 +3801,16 @@
       <c r="J77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K77" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
@@ -3243,13 +3830,14 @@
       <c r="J78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
@@ -3269,13 +3857,14 @@
       <c r="J79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
@@ -3295,13 +3884,16 @@
       <c r="J80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K80" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
@@ -3321,13 +3913,14 @@
       <c r="J81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K81" s="12"/>
+    </row>
+    <row r="82" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>73</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
@@ -3347,13 +3940,16 @@
       <c r="J82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K82" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>74</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
@@ -3373,13 +3969,16 @@
       <c r="J83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K83" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3">
@@ -3399,13 +3998,16 @@
       <c r="J84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K84" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>33</v>
@@ -3427,13 +4029,16 @@
       <c r="J85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K85" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>33</v>
@@ -3455,13 +4060,16 @@
       <c r="J86">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K86" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>33</v>
@@ -3483,13 +4091,16 @@
       <c r="J87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K87" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>34</v>
@@ -3511,13 +4122,16 @@
       <c r="J88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K88" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>33</v>
@@ -3539,13 +4153,16 @@
       <c r="J89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K89" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
@@ -3565,13 +4182,14 @@
       <c r="J90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K90" s="12"/>
+    </row>
+    <row r="91" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
@@ -3591,13 +4209,16 @@
       <c r="J91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K91" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
@@ -3615,15 +4236,18 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>34</v>
@@ -3645,8 +4269,11 @@
       <c r="J93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K93" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>85</v>
       </c>
@@ -3671,13 +4298,16 @@
       <c r="J94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K94" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>34</v>
@@ -3696,18 +4326,21 @@
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K95" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>34</v>
@@ -3726,18 +4359,21 @@
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K96" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
@@ -3757,13 +4393,16 @@
       <c r="J97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K97" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>34</v>
@@ -3785,13 +4424,16 @@
       <c r="J98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K98" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>90</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>34</v>
@@ -3810,18 +4452,21 @@
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K99" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>91</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
@@ -3841,13 +4486,16 @@
       <c r="J100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K100" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>92</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
@@ -3867,13 +4515,16 @@
       <c r="J101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K101" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>93</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3">
@@ -3893,13 +4544,16 @@
       <c r="J102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K102" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>94</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>34</v>
@@ -3921,13 +4575,16 @@
       <c r="J103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K103" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>95</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
@@ -3947,13 +4604,14 @@
       <c r="J104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K104" s="12"/>
+    </row>
+    <row r="105" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>96</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3">
@@ -3973,13 +4631,14 @@
       <c r="J105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="K105" s="12"/>
+    </row>
+    <row r="106" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>97</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>33</v>
@@ -3998,18 +4657,21 @@
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K106" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>98</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>34</v>
@@ -4031,13 +4693,14 @@
       <c r="J107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K107" s="12"/>
+    </row>
+    <row r="108" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>99</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>34</v>
@@ -4059,13 +4722,14 @@
       <c r="J108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K108" s="12"/>
+    </row>
+    <row r="109" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>100</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>34</v>
@@ -4087,13 +4751,14 @@
       <c r="J109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K109" s="12"/>
+    </row>
+    <row r="110" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>101</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>34</v>
@@ -4115,13 +4780,14 @@
       <c r="J110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K110" s="12"/>
+    </row>
+    <row r="111" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>102</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
@@ -4141,8 +4807,11 @@
       <c r="J111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K111" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>

--- a/cfg/game_time_cfg.xlsx
+++ b/cfg/game_time_cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B11CF0-E2A8-483E-8459-377D099C807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85ECFD-3EAC-4736-9713-293587DF6FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="270">
   <si>
     <t>id</t>
   </si>
@@ -477,541 +477,597 @@
     <t>致命公司</t>
   </si>
   <si>
+    <t>文明4</t>
+  </si>
+  <si>
+    <t>帝国时代2</t>
+  </si>
+  <si>
+    <t>红色警戒2</t>
+  </si>
+  <si>
+    <t>星际争霸1</t>
+  </si>
+  <si>
+    <t>魔兽争霸3</t>
+  </si>
+  <si>
+    <t>海岛大亨5</t>
+  </si>
+  <si>
+    <t>以撒的结合</t>
+  </si>
+  <si>
+    <t>决战平安京</t>
+  </si>
+  <si>
+    <t>王者荣耀</t>
+  </si>
+  <si>
+    <t>绝区零</t>
+  </si>
+  <si>
+    <t>荒野乱斗</t>
+  </si>
+  <si>
+    <t>阴阳师</t>
+  </si>
+  <si>
+    <t>最强蜗牛</t>
+  </si>
+  <si>
+    <t>崩坏3</t>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>地下城与勇士</t>
+  </si>
+  <si>
+    <t>彩虹岛</t>
+  </si>
+  <si>
+    <t>龙之谷</t>
+  </si>
+  <si>
+    <t>穿越火线</t>
+  </si>
+  <si>
+    <t>品质标签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:大师之作,5:奇佳,4:卓越,3:优秀,2:尚可,1:平庸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALORANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚蓝档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨中冒险2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS 1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horizon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Last of Us 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角洲行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分手厨房2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦陨落2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitanFall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼幸存者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Borderlands</t>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体好直接开睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国人魔改枪战游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似早期作弊猎豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小科比找妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远超APEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑酷打僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不如一代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑子带包想出来模拟城市联网的玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电工模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国人不会做模拟经营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧场物语：矿石镇的伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化版牧场物语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐氏绝地求生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天亮了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB也能当策划？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无厘头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢干农活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳头做的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩3电脑版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活到今天全靠玩家自制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭能解决问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮尖塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉，死亡与机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉石传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会出男性人物？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄联盟手游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女前线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云顶之弈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港GTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的G7没我的G8长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说匹配和排位在同一个池子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴森球计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我叫磁力棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼雷炸飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：这项改动极为大胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还挺骄傲？有什么用？一个2分钟一把的4399小游戏，拿出去给人说自己成天苦练一个4399凉批小游戏，谁不在心里暗骂你一句s比？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balatro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hades II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大名鼎鼎的冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴，你个王八蛋！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用心做游戏，用脚做平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国外玩家社群在首发时把专家系统吐槽为APEX2042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用心做CG，用脚做游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G胖不会数三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎先锋三拳干碎我的大圣梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦陨落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被APEX偷走人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost面具淘宝同款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤比段位保值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一起开火车</t>
-  </si>
-  <si>
-    <t>文明4</t>
-  </si>
-  <si>
-    <t>帝国时代2</t>
-  </si>
-  <si>
-    <t>红色警戒2</t>
-  </si>
-  <si>
-    <t>要塞：十字军东征2</t>
-  </si>
-  <si>
-    <t>星际争霸1</t>
-  </si>
-  <si>
-    <t>魔兽争霸3</t>
-  </si>
-  <si>
-    <t>海岛大亨5</t>
-  </si>
-  <si>
-    <t>以撒的结合</t>
-  </si>
-  <si>
-    <t>决战平安京</t>
-  </si>
-  <si>
-    <t>王者荣耀</t>
-  </si>
-  <si>
-    <t>绝区零</t>
-  </si>
-  <si>
-    <t>荒野乱斗</t>
-  </si>
-  <si>
-    <t>阴阳师</t>
-  </si>
-  <si>
-    <t>最强蜗牛</t>
-  </si>
-  <si>
-    <t>崩坏3</t>
-  </si>
-  <si>
-    <t>原神</t>
-  </si>
-  <si>
-    <t>地下城与勇士</t>
-  </si>
-  <si>
-    <t>彩虹岛</t>
-  </si>
-  <si>
-    <t>龙之谷</t>
-  </si>
-  <si>
-    <t>穿越火线</t>
-  </si>
-  <si>
-    <t>品质标签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:大师之作,5:奇佳,4:卓越,3:优秀,2:尚可,1:平庸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALORANT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔚蓝档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨中冒险2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS 1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地平线4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地平线5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Horizon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Last of Us 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三角洲行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分手厨房2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰坦陨落2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitanFall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血鬼幸存者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无主之地2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无主之地3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Borderlands</t>
-  </si>
-  <si>
-    <t>story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体好直接开睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好玩 步兵最好玩的一集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放炸弹拆炸弹游戏的祖宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国人魔改枪战游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把吃鸡做明白了 腾讯没想明白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑似早期作弊猎豹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小科比找妈妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好玩x2 想出射击挖宝的是天才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好玩x3 想出射击挖宝的是天才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好玩x1 想出射击挖宝的是天才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远超APEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还行 刚出优化太差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢cosplay日本人就玩这个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情烂尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢割草 爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打僵尸带技能 养成曲线有点怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三人称射击挖宝 带联网 带充值内购 疑似被腾讯资方视察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三人称射击挖宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑酷打僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢cosplay西部牛仔就玩这个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打僵尸小神作 养成曲线完美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不如一代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COD最好玩的一集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好玩 电视剧也好看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记得用手柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超越一代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天际线没出之前 模拟城市类型的划时代神作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脑子带包想出来模拟城市联网的玩法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当代模拟城市神作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有望继承模拟城市神作头衔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>末世政治模拟器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笑死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机制神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被同事骗着买的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德州肉鸽 神中神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好玩 喜欢割草 就是容易睡着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从DOS一路换皮到WIN11 钱真好赚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没四代好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科幻苦力模拟器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电工模拟器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国人不会做模拟经营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般 手忙脚乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧场物语：矿石镇的伙伴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化版牧场物语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>童年的神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐氏绝地求生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS割草大王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天亮了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史题材RTS神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中世纪RTS神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还行 我不喜欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB也能当策划？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无厘头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比干农活好玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢干农活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳头做的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崩3电脑版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这也能成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活到今天全靠玩家自制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哭能解决问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀戮尖塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唉，死亡与机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉石传说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会出男性人物？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄联盟手游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女前线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云顶之弈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小超APEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位招租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港GTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的G7没我的G8长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说匹配和排位在同一个池子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴森球计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我叫磁力棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼雷炸飞机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：这项改动极为大胆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还挺骄傲？有什么用？一个2分钟一把的4399小游戏，拿出去给人说自己成天苦练一个4399凉批小游戏，谁不在心里暗骂你一句s比？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balatro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hades II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罐头神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子之心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大名鼎鼎的冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滴滴，你个王八蛋！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用心做游戏，用脚做平衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国外玩家社群在首发时把专家系统吐槽为APEX2042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用心做CG，用脚做游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神作的爸爸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神作的爷爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G胖不会数三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎先锋三拳干碎我的大圣梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无主之地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰坦陨落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网吧老板的终身养老保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费吃鸡体验卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无厘头废土世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情封神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划喝了假酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表哥欠钱不还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍人带樱花特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全境封号2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪教团建模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐头沙盒祖师爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照系统比主线好玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电锯永动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成武器才是本体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G胖数三启蒙教育失败案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩水狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑客模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部摄影家协会指定器材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度假岛变丧尸岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开车十分钟拍照两小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没分手算我输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿洞才是本体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙流水线工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝污水行为艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉鸽界拼多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软体动物成精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捡垃圾也要KPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连体婴跑酷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具叠到宇宙坍缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐伐伐伐伐木工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国电竞传国玉玺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIA年终考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易就爱招些不玩游戏的高材生策划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆收集器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优香算数教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛博义乌小商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学生第一套QQ秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠龙者终成韭菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三亿鼠标的枪战梦想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩，步兵最好玩的一集</t>
+  </si>
+  <si>
+    <t>PANZER，SEAWAYS</t>
+  </si>
+  <si>
+    <t>尸潮如海，玩法如沙</t>
+  </si>
+  <si>
+    <t>受苦三小时，通关五分钟</t>
+  </si>
+  <si>
+    <t>A哥吞人动作片，纽约市民集体蒸发</t>
+  </si>
+  <si>
+    <t>黑哥会武术，谁也挡不住</t>
+  </si>
+  <si>
+    <t>好玩，电视剧也好看</t>
+  </si>
+  <si>
+    <t>墨西哥旅游宣传片，泥头车创碎你的车损险</t>
+  </si>
+  <si>
+    <t>堵车模拟器，市民集体路怒症</t>
+  </si>
+  <si>
+    <t>经典永流传，win10跑不动</t>
+  </si>
+  <si>
+    <t>人性拷问机，越管越像法西斯模拟器</t>
+  </si>
+  <si>
+    <t>黑心院长模拟器，走廊比病房更重要</t>
+  </si>
+  <si>
+    <t>反向上班模拟，数值爆炸升天</t>
+  </si>
+  <si>
+    <t>德州肉鸽，神中神</t>
+  </si>
+  <si>
+    <t>冥界996，死了重开下一班，爹见打模拟器</t>
+  </si>
+  <si>
+    <t>冥界家族企业扩招，这次轮到妹妹加班</t>
+  </si>
+  <si>
+    <t>铁轨铺到哪，友谊断到哪</t>
+  </si>
+  <si>
+    <t>欲买桂花同载酒，终不似，少年游</t>
+  </si>
+  <si>
+    <t>三级头不如炒菜锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLC地狱再临</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +1206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,10 +1240,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,22 +1551,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="121.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="121.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1551,16 +1604,16 @@
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1647,7 +1700,7 @@
         <v>65</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1717,7 +1770,7 @@
         <v>64</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1747,8 +1800,8 @@
       <c r="J10">
         <v>4</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>154</v>
+      <c r="K10" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1778,8 +1831,8 @@
       <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>244</v>
+      <c r="K11" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.15">
@@ -1809,8 +1862,8 @@
       <c r="J12">
         <v>6</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>225</v>
+      <c r="K12" s="11" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.15">
@@ -1842,8 +1895,8 @@
       <c r="J13">
         <v>4</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>207</v>
+      <c r="K13" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1875,8 +1928,8 @@
       <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>243</v>
+      <c r="K14" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1908,8 +1961,8 @@
       <c r="J15">
         <v>3</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>156</v>
+      <c r="K15" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1937,8 +1990,8 @@
       <c r="J16">
         <v>4</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>227</v>
+      <c r="K16" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1946,7 +1999,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -1968,8 +2021,8 @@
       <c r="J17">
         <v>6</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>157</v>
+      <c r="K17" s="11" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2001,8 +2054,8 @@
       <c r="J18">
         <v>2</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>158</v>
+      <c r="K18" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2030,8 +2083,8 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>160</v>
+      <c r="K19" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2059,8 +2112,8 @@
       <c r="J20">
         <v>3</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>159</v>
+      <c r="K20" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2068,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
@@ -2088,8 +2141,8 @@
       <c r="J21">
         <v>6</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>161</v>
+      <c r="K21" s="11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2097,7 +2150,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
@@ -2113,14 +2166,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22">
         <v>3</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>164</v>
+      <c r="K22" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2128,7 +2181,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
@@ -2144,14 +2197,14 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23">
         <v>5</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>162</v>
+      <c r="K23" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2159,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
@@ -2175,14 +2228,14 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24">
         <v>3</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>163</v>
+      <c r="K24" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2190,7 +2243,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -2206,14 +2259,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25">
         <v>3</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>224</v>
+      <c r="K25" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2221,7 +2274,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
@@ -2237,14 +2290,14 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26">
         <v>4</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>165</v>
+      <c r="K26" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2274,8 +2327,8 @@
       <c r="J27">
         <v>6</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>166</v>
+      <c r="K27" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2307,8 +2360,8 @@
       <c r="J28">
         <v>4</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>167</v>
+      <c r="K28" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2340,8 +2393,8 @@
       <c r="J29">
         <v>5</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>245</v>
+      <c r="K29" s="11" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2373,8 +2426,8 @@
       <c r="J30">
         <v>6</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>246</v>
+      <c r="K30" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2404,8 +2457,8 @@
       <c r="J31">
         <v>5</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>168</v>
+      <c r="K31" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2435,8 +2488,8 @@
       <c r="J32">
         <v>3</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>173</v>
+      <c r="K32" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2466,8 +2519,8 @@
       <c r="J33">
         <v>3</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>172</v>
+      <c r="K33" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2497,8 +2550,8 @@
       <c r="J34">
         <v>2</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>169</v>
+      <c r="K34" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2528,8 +2581,8 @@
       <c r="J35">
         <v>5</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>237</v>
+      <c r="K35" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2559,8 +2612,8 @@
       <c r="J36">
         <v>4</v>
       </c>
-      <c r="K36" s="12" t="s">
-        <v>170</v>
+      <c r="K36" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2590,8 +2643,8 @@
       <c r="J37">
         <v>3</v>
       </c>
-      <c r="K37" s="12" t="s">
-        <v>170</v>
+      <c r="K37" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2621,8 +2674,8 @@
       <c r="J38">
         <v>3</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>170</v>
+      <c r="K38" s="11" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2652,8 +2705,8 @@
       <c r="J39">
         <v>6</v>
       </c>
-      <c r="K39" s="12" t="s">
-        <v>248</v>
+      <c r="K39" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2683,7 +2736,9 @@
       <c r="J40">
         <v>3</v>
       </c>
-      <c r="K40" s="12"/>
+      <c r="K40" s="11" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
@@ -2710,8 +2765,8 @@
       <c r="J41">
         <v>2</v>
       </c>
-      <c r="K41" s="12" t="s">
-        <v>171</v>
+      <c r="K41" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2739,7 +2794,9 @@
       <c r="J42">
         <v>3</v>
       </c>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
@@ -2769,8 +2826,8 @@
       <c r="J43">
         <v>6</v>
       </c>
-      <c r="K43" s="12" t="s">
-        <v>240</v>
+      <c r="K43" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2778,7 +2835,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -2798,8 +2855,8 @@
       <c r="J44">
         <v>4</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>239</v>
+      <c r="K44" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2829,8 +2886,8 @@
       <c r="J45">
         <v>4</v>
       </c>
-      <c r="K45" s="12" t="s">
-        <v>249</v>
+      <c r="K45" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2838,7 +2895,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>34</v>
@@ -2862,7 +2919,9 @@
       <c r="J46">
         <v>2</v>
       </c>
-      <c r="K46" s="12"/>
+      <c r="K46" s="11" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
@@ -2893,7 +2952,9 @@
       <c r="J47">
         <v>2</v>
       </c>
-      <c r="K47" s="12"/>
+      <c r="K47" s="11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
@@ -2924,7 +2985,9 @@
       <c r="J48">
         <v>3</v>
       </c>
-      <c r="K48" s="12"/>
+      <c r="K48" s="11" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
@@ -2955,8 +3018,8 @@
       <c r="J49">
         <v>3</v>
       </c>
-      <c r="K49" s="12" t="s">
-        <v>247</v>
+      <c r="K49" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -2986,8 +3049,8 @@
       <c r="J50">
         <v>3</v>
       </c>
-      <c r="K50" s="12" t="s">
-        <v>174</v>
+      <c r="K50" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3015,8 +3078,8 @@
       <c r="J51">
         <v>5</v>
       </c>
-      <c r="K51" s="12" t="s">
-        <v>175</v>
+      <c r="K51" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3046,8 +3109,8 @@
       <c r="J52">
         <v>5</v>
       </c>
-      <c r="K52" s="12" t="s">
-        <v>176</v>
+      <c r="K52" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3077,8 +3140,8 @@
       <c r="J53">
         <v>2</v>
       </c>
-      <c r="K53" s="12" t="s">
-        <v>177</v>
+      <c r="K53" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3106,8 +3169,8 @@
       <c r="J54">
         <v>2</v>
       </c>
-      <c r="K54" s="12" t="s">
-        <v>226</v>
+      <c r="K54" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3137,8 +3200,8 @@
       <c r="J55">
         <v>5</v>
       </c>
-      <c r="K55" s="12" t="s">
-        <v>178</v>
+      <c r="K55" s="11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3146,7 +3209,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3">
@@ -3164,8 +3227,8 @@
       <c r="J56">
         <v>5</v>
       </c>
-      <c r="K56" s="12" t="s">
-        <v>179</v>
+      <c r="K56" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3173,7 +3236,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3">
@@ -3189,14 +3252,14 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57">
         <v>3</v>
       </c>
-      <c r="K57" s="12" t="s">
-        <v>180</v>
+      <c r="K57" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3204,7 +3267,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
@@ -3220,14 +3283,14 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58">
         <v>2</v>
       </c>
-      <c r="K58" s="12" t="s">
-        <v>180</v>
+      <c r="K58" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3235,7 +3298,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
@@ -3255,8 +3318,8 @@
       <c r="J59">
         <v>3</v>
       </c>
-      <c r="K59" s="12" t="s">
-        <v>197</v>
+      <c r="K59" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3284,8 +3347,8 @@
       <c r="J60">
         <v>4</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>196</v>
+      <c r="K60" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3313,8 +3376,8 @@
       <c r="J61">
         <v>3</v>
       </c>
-      <c r="K61" s="12" t="s">
-        <v>199</v>
+      <c r="K61" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3322,7 +3385,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>34</v>
@@ -3344,8 +3407,8 @@
       <c r="J62">
         <v>3</v>
       </c>
-      <c r="K62" s="12" t="s">
-        <v>200</v>
+      <c r="K62" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3353,7 +3416,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3">
@@ -3373,8 +3436,8 @@
       <c r="J63">
         <v>3</v>
       </c>
-      <c r="K63" s="12" t="s">
-        <v>194</v>
+      <c r="K63" s="11" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3402,8 +3465,8 @@
       <c r="J64">
         <v>4</v>
       </c>
-      <c r="K64" s="12" t="s">
-        <v>195</v>
+      <c r="K64" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3435,8 +3498,8 @@
       <c r="J65">
         <v>5</v>
       </c>
-      <c r="K65" s="12" t="s">
-        <v>182</v>
+      <c r="K65" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3468,8 +3531,8 @@
       <c r="J66">
         <v>4</v>
       </c>
-      <c r="K66" s="12" t="s">
-        <v>193</v>
+      <c r="K66" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3501,8 +3564,8 @@
       <c r="J67">
         <v>2</v>
       </c>
-      <c r="K67" s="12" t="s">
-        <v>183</v>
+      <c r="K67" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3532,8 +3595,8 @@
       <c r="J68">
         <v>5</v>
       </c>
-      <c r="K68" s="12" t="s">
-        <v>184</v>
+      <c r="K68" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3563,8 +3626,8 @@
       <c r="J69">
         <v>4</v>
       </c>
-      <c r="K69" s="12" t="s">
-        <v>185</v>
+      <c r="K69" s="11" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3592,8 +3655,8 @@
       <c r="J70">
         <v>2</v>
       </c>
-      <c r="K70" s="12" t="s">
-        <v>186</v>
+      <c r="K70" s="11" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3621,8 +3684,8 @@
       <c r="J71">
         <v>3</v>
       </c>
-      <c r="K71" s="12" t="s">
-        <v>192</v>
+      <c r="K71" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3630,7 +3693,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
@@ -3650,8 +3713,8 @@
       <c r="J72">
         <v>4</v>
       </c>
-      <c r="K72" s="12" t="s">
-        <v>191</v>
+      <c r="K72" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3659,7 +3722,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3">
@@ -3679,8 +3742,8 @@
       <c r="J73">
         <v>6</v>
       </c>
-      <c r="K73" s="12" t="s">
-        <v>190</v>
+      <c r="K73" s="11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3688,7 +3751,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>34</v>
@@ -3712,8 +3775,8 @@
       <c r="J74">
         <v>3</v>
       </c>
-      <c r="K74" s="12" t="s">
-        <v>155</v>
+      <c r="K74" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3721,7 +3784,7 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3">
@@ -3743,8 +3806,8 @@
       <c r="J75">
         <v>4</v>
       </c>
-      <c r="K75" s="12" t="s">
-        <v>181</v>
+      <c r="K75" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3772,8 +3835,8 @@
       <c r="J76">
         <v>2</v>
       </c>
-      <c r="K76" s="12" t="s">
-        <v>189</v>
+      <c r="K76" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3801,8 +3864,8 @@
       <c r="J77">
         <v>5</v>
       </c>
-      <c r="K77" s="12" t="s">
-        <v>188</v>
+      <c r="K77" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3830,7 +3893,9 @@
       <c r="J78">
         <v>3</v>
       </c>
-      <c r="K78" s="12"/>
+      <c r="K78" s="11" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
@@ -3857,7 +3922,9 @@
       <c r="J79">
         <v>3</v>
       </c>
-      <c r="K79" s="12"/>
+      <c r="K79" s="11" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
@@ -3884,8 +3951,8 @@
       <c r="J80">
         <v>3</v>
       </c>
-      <c r="K80" s="12" t="s">
-        <v>187</v>
+      <c r="K80" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3893,7 +3960,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
@@ -3913,7 +3980,9 @@
       <c r="J81">
         <v>3</v>
       </c>
-      <c r="K81" s="12"/>
+      <c r="K81" s="11" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
@@ -3940,8 +4009,8 @@
       <c r="J82">
         <v>3</v>
       </c>
-      <c r="K82" s="12" t="s">
-        <v>201</v>
+      <c r="K82" s="11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3949,7 +4018,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
@@ -3969,8 +4038,8 @@
       <c r="J83">
         <v>4</v>
       </c>
-      <c r="K83" s="12" t="s">
-        <v>202</v>
+      <c r="K83" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -3978,7 +4047,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3">
@@ -3998,8 +4067,8 @@
       <c r="J84">
         <v>2</v>
       </c>
-      <c r="K84" s="12" t="s">
-        <v>203</v>
+      <c r="K84" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4007,7 +4076,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>33</v>
@@ -4029,8 +4098,8 @@
       <c r="J85">
         <v>6</v>
       </c>
-      <c r="K85" s="12" t="s">
-        <v>204</v>
+      <c r="K85" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4038,7 +4107,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>33</v>
@@ -4060,8 +4129,8 @@
       <c r="J86">
         <v>6</v>
       </c>
-      <c r="K86" s="12" t="s">
-        <v>230</v>
+      <c r="K86" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4069,7 +4138,7 @@
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>33</v>
@@ -4091,8 +4160,8 @@
       <c r="J87">
         <v>5</v>
       </c>
-      <c r="K87" s="12" t="s">
-        <v>205</v>
+      <c r="K87" s="11" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4100,7 +4169,7 @@
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>34</v>
@@ -4122,8 +4191,8 @@
       <c r="J88">
         <v>4</v>
       </c>
-      <c r="K88" s="12" t="s">
-        <v>206</v>
+      <c r="K88" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4131,7 +4200,7 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>33</v>
@@ -4153,8 +4222,8 @@
       <c r="J89">
         <v>5</v>
       </c>
-      <c r="K89" s="12" t="s">
-        <v>215</v>
+      <c r="K89" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4162,7 +4231,7 @@
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
@@ -4182,14 +4251,16 @@
       <c r="J90">
         <v>2</v>
       </c>
-      <c r="K90" s="12"/>
+      <c r="K90" s="11" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
@@ -4209,8 +4280,8 @@
       <c r="J91">
         <v>4</v>
       </c>
-      <c r="K91" s="12" t="s">
-        <v>216</v>
+      <c r="K91" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4218,7 +4289,7 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
@@ -4238,8 +4309,8 @@
       <c r="J92">
         <v>4</v>
       </c>
-      <c r="K92" s="12" t="s">
-        <v>218</v>
+      <c r="K92" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4247,7 +4318,7 @@
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>34</v>
@@ -4269,8 +4340,8 @@
       <c r="J93">
         <v>3</v>
       </c>
-      <c r="K93" s="12" t="s">
-        <v>232</v>
+      <c r="K93" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4298,8 +4369,8 @@
       <c r="J94">
         <v>3</v>
       </c>
-      <c r="K94" s="12" t="s">
-        <v>231</v>
+      <c r="K94" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4307,7 +4378,7 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>34</v>
@@ -4331,8 +4402,8 @@
       <c r="J95">
         <v>3</v>
       </c>
-      <c r="K95" s="12" t="s">
-        <v>210</v>
+      <c r="K95" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4340,7 +4411,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>34</v>
@@ -4364,8 +4435,8 @@
       <c r="J96">
         <v>1</v>
       </c>
-      <c r="K96" s="12" t="s">
-        <v>211</v>
+      <c r="K96" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4373,7 +4444,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
@@ -4393,8 +4464,8 @@
       <c r="J97">
         <v>3</v>
       </c>
-      <c r="K97" s="12" t="s">
-        <v>213</v>
+      <c r="K97" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4402,7 +4473,7 @@
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>34</v>
@@ -4424,8 +4495,8 @@
       <c r="J98">
         <v>4</v>
       </c>
-      <c r="K98" s="12" t="s">
-        <v>233</v>
+      <c r="K98" s="11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4433,7 +4504,7 @@
         <v>90</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>34</v>
@@ -4457,8 +4528,8 @@
       <c r="J99">
         <v>2</v>
       </c>
-      <c r="K99" s="12" t="s">
-        <v>212</v>
+      <c r="K99" s="11" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4466,7 +4537,7 @@
         <v>91</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
@@ -4486,8 +4557,8 @@
       <c r="J100">
         <v>2</v>
       </c>
-      <c r="K100" s="12" t="s">
-        <v>214</v>
+      <c r="K100" s="11" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4495,7 +4566,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
@@ -4515,8 +4586,8 @@
       <c r="J101">
         <v>1</v>
       </c>
-      <c r="K101" s="12" t="s">
-        <v>208</v>
+      <c r="K101" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4524,7 +4595,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3">
@@ -4544,8 +4615,8 @@
       <c r="J102">
         <v>1</v>
       </c>
-      <c r="K102" s="12" t="s">
-        <v>220</v>
+      <c r="K102" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4553,7 +4624,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>34</v>
@@ -4575,8 +4646,8 @@
       <c r="J103">
         <v>2</v>
       </c>
-      <c r="K103" s="12" t="s">
-        <v>209</v>
+      <c r="K103" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4584,7 +4655,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
@@ -4604,14 +4675,16 @@
       <c r="J104">
         <v>1</v>
       </c>
-      <c r="K104" s="12"/>
+      <c r="K104" s="11" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="105" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>96</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3">
@@ -4631,14 +4704,16 @@
       <c r="J105">
         <v>2</v>
       </c>
-      <c r="K105" s="12"/>
+      <c r="K105" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>97</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>33</v>
@@ -4662,8 +4737,8 @@
       <c r="J106">
         <v>5</v>
       </c>
-      <c r="K106" s="12" t="s">
-        <v>242</v>
+      <c r="K106" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -4671,7 +4746,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>34</v>
@@ -4693,14 +4768,16 @@
       <c r="J107">
         <v>2</v>
       </c>
-      <c r="K107" s="12"/>
+      <c r="K107" s="11" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>99</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>34</v>
@@ -4722,14 +4799,16 @@
       <c r="J108">
         <v>1</v>
       </c>
-      <c r="K108" s="12"/>
+      <c r="K108" s="11" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="109" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>100</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>34</v>
@@ -4751,14 +4830,16 @@
       <c r="J109">
         <v>1</v>
       </c>
-      <c r="K109" s="12"/>
+      <c r="K109" s="11" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="110" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>101</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>34</v>
@@ -4780,14 +4861,16 @@
       <c r="J110">
         <v>1</v>
       </c>
-      <c r="K110" s="12"/>
+      <c r="K110" s="11" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>102</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
@@ -4807,8 +4890,8 @@
       <c r="J111">
         <v>1</v>
       </c>
-      <c r="K111" s="12" t="s">
-        <v>228</v>
+      <c r="K111" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
